--- a/demo/data/ARRAtestscript.xlsx
+++ b/demo/data/ARRAtestscript.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="162">
   <si>
     <t>Fields Name</t>
   </si>
